--- a/Datos/Anuario2024/080203_ConsumoGasButano.xlsx
+++ b/Datos/Anuario2024/080203_ConsumoGasButano.xlsx
@@ -1,13 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Tomas\AplAnu2024\System\Xls_Cast\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="12585" yWindow="-15" windowWidth="12630" windowHeight="12090" tabRatio="813" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="12585" yWindow="-15" windowWidth="12630" windowHeight="12090" tabRatio="813"/>
   </bookViews>
   <sheets>
-    <sheet name="0" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="0" sheetId="1" r:id="rId1"/>
+    <sheet name="1" sheetId="36" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_R1_1">#REF!</definedName>
@@ -108,72 +114,100 @@
     <definedName name="xcvbcxvx">#REF!</definedName>
     <definedName name="yyyty6">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" fullCalcOnLoad="1"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>Propano Envasado</t>
+  </si>
+  <si>
+    <t>Butano Envasado</t>
+  </si>
+  <si>
+    <t>Propano Granel</t>
+  </si>
+  <si>
+    <t>Mezcla Automoción</t>
+  </si>
+  <si>
+    <t>Nota: Datos de consumo en toneladas.</t>
+  </si>
+  <si>
+    <t>Fuente: Repsol Butano S.A.</t>
+  </si>
+  <si>
+    <t>CONSUMO DE GAS BUTANO</t>
+  </si>
+  <si>
+    <t>1. Consumo de gas butano. 2023</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="9">
-    <font>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="9" x14ac:knownFonts="1">
+    <font>
+      <sz val="10"/>
       <name val="Arial"/>
-      <sz val="10"/>
-    </font>
-    <font>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
       <sz val="10"/>
-    </font>
-    <font>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <sz val="10"/>
-    </font>
-    <font>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <sz val="12"/>
-    </font>
-    <font>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="9"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <color indexed="9"/>
-      <sz val="10"/>
-    </font>
-    <font>
+    </font>
+    <font>
+      <i/>
+      <sz val="8"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <i val="1"/>
-      <sz val="8"/>
-    </font>
-    <font>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color indexed="8"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -202,31 +236,32 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 11" xfId="7"/>
+    <cellStyle name="Normal 15" xfId="6"/>
     <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2 2" xfId="5"/>
+    <cellStyle name="Normal 2_2.4" xfId="4"/>
     <cellStyle name="Normal 3" xfId="2"/>
     <cellStyle name="Normal 4" xfId="3"/>
-    <cellStyle name="Normal 2_2.4" xfId="4"/>
-    <cellStyle name="Normal 2 2" xfId="5"/>
-    <cellStyle name="Normal 15" xfId="6"/>
-    <cellStyle name="Normal 11" xfId="7"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -295,7 +330,19 @@
       <rgbColor rgb="00333399"/>
       <rgbColor rgb="00333333"/>
     </indexedColors>
+    <mruColors>
+      <color rgb="FFFFCC99"/>
+      <color rgb="FF2C7C7C"/>
+    </mruColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -585,139 +632,109 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="35.7109375" customWidth="1" min="1" max="1"/>
+    <col min="1" max="1" width="35.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="3" t="inlineStr">
-        <is>
-          <t>CONSUMO DE GAS BUTANO</t>
-        </is>
+    <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="0" type="noConversion"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja33">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="17.28515625" customWidth="1" min="1" max="4"/>
+    <col min="1" max="4" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="3" t="inlineStr">
-        <is>
-          <t>1. Consumo de gas butano. 2023</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="n"/>
-      <c r="C1" s="2" t="n"/>
-      <c r="D1" s="2" t="n"/>
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
     </row>
-    <row r="2">
-      <c r="A2" s="2" t="n"/>
-      <c r="B2" s="2" t="n"/>
-      <c r="C2" s="2" t="n"/>
-      <c r="D2" s="2" t="n"/>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
     </row>
-    <row r="3" ht="19.35" customFormat="1" customHeight="1" s="1">
-      <c r="A3" s="5" t="inlineStr">
-        <is>
-          <t>Butano Envasado</t>
-        </is>
-      </c>
-      <c r="B3" s="5" t="inlineStr">
-        <is>
-          <t>Propano Envasado</t>
-        </is>
-      </c>
-      <c r="C3" s="5" t="inlineStr">
-        <is>
-          <t>Propano Granel</t>
-        </is>
-      </c>
-      <c r="D3" s="5" t="inlineStr">
-        <is>
-          <t>Mezcla Automoción</t>
-        </is>
+    <row r="3" spans="1:4" s="1" customFormat="1" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="6" t="n">
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="6">
         <v>9355.34</v>
       </c>
-      <c r="B4" s="6" t="n">
+      <c r="B4" s="6">
         <v>1422.25</v>
       </c>
-      <c r="C4" s="6" t="n">
+      <c r="C4" s="6">
         <v>289.73</v>
       </c>
-      <c r="D4" s="6" t="n">
+      <c r="D4" s="6">
         <v>1293.26</v>
       </c>
     </row>
-    <row r="5" ht="12.75" customHeight="1">
-      <c r="A5" s="4" t="inlineStr">
-        <is>
-          <t>Nota: Datos de consumo en toneladas.</t>
-        </is>
-      </c>
-      <c r="B5" s="4" t="n"/>
-      <c r="C5" s="4" t="n"/>
-      <c r="D5" s="4" t="n"/>
+    <row r="5" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
     </row>
-    <row r="6">
-      <c r="A6" s="4" t="inlineStr">
-        <is>
-          <t>Fuente: Repsol Butano S.A.</t>
-        </is>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="0" type="noConversion"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>